--- a/biology/Biochimie/Inhibiteur_non_compétitif/Inhibiteur_non_compétitif.xlsx
+++ b/biology/Biochimie/Inhibiteur_non_compétitif/Inhibiteur_non_compétitif.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Inhibiteur_non_comp%C3%A9titif</t>
+          <t>Inhibiteur_non_compétitif</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un inhibiteur non compétitif est un inhibiteur enzymatique qui agit en se liant, avec une affinité égale, aussi bien à l'enzyme dont le site actif est libre qu'au complexe formé par l'enzyme et son substrat (contrairement à un inhibiteur compétitif qui ne se lie qu'à une enzyme dont le site actif est libre) ; si cet inhibiteur a une plus grande affinité pour l'enzyme seule ou pour le complexe enzyme-substrat, il s'agit d'un inhibiteur mixte.
-Les inhibiteurs non compétitifs sont allostériques, c'est-à-dire qu'ils se lient ailleurs qu'au site actif de l'enzyme[1]. Un inhibiteur non compétitif peut se lier à l'enzyme aussi bien quand son site actif est libre que lorsqu'il est occupé, alors qu'un inhibiteur compétitif ne se lie qu'aux enzymes dont le site actif est libre[2].
+Les inhibiteurs non compétitifs sont allostériques, c'est-à-dire qu'ils se lient ailleurs qu'au site actif de l'enzyme. Un inhibiteur non compétitif peut se lier à l'enzyme aussi bien quand son site actif est libre que lorsqu'il est occupé, alors qu'un inhibiteur compétitif ne se lie qu'aux enzymes dont le site actif est libre.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Inhibiteur_non_comp%C3%A9titif</t>
+          <t>Inhibiteur_non_compétitif</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,11 +524,13 @@
           <t>Mécanisme</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Contrairement à un inhibiteur compétitif, lequel bloque la formation du complexe enzyme-substrat, un inhibiteur non compétitif n'empêche pas la formation du complexe enzyme-substrat, mais empêche ce dernier de conduire à la formation des produits de réaction.
 Ce type d'inhibition réduit la vitesse maximum Vmax de la réaction chimique catalysée sans modifier la constante de Michaelis Km de l'enzyme.
-Par exemple, le cytochrome P450 2C9 possède plusieurs inhibiteurs non compétitifs, comme la nifédipine, la tranylcypromine (en), l'isothiocyanate de phénétyle (en) et la 6-hydroxyflavone ; cette dernière se lie sur un site allostérique de l'enzyme[3].
+Par exemple, le cytochrome P450 2C9 possède plusieurs inhibiteurs non compétitifs, comme la nifédipine, la tranylcypromine (en), l'isothiocyanate de phénétyle (en) et la 6-hydroxyflavone ; cette dernière se lie sur un site allostérique de l'enzyme.
 </t>
         </is>
       </c>
